--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 2025</t>
   </si>
 </sst>
 </file>
@@ -3568,6 +3571,29 @@
         <v>0.00336814253356048</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.0264483627204029</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.00793082549499841</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.0120427120028384</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.00304841038591054</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.00150404205054444</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.00192237278611108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t xml:space="preserve">Feb 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar 2025</t>
   </si>
 </sst>
 </file>
@@ -3594,6 +3597,29 @@
         <v>0.00192237278611108</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0231539424280349</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.00617286180483769</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0109405428895567</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.00344074151147696</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.00288979454443045</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.000289998322266824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mar 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 2025</t>
   </si>
 </sst>
 </file>
@@ -3620,6 +3623,29 @@
         <v>-0.000289998322266824</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0174346201743463</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.009140225822951</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0106202594633438</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.00412291913005729</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.00261104041565025</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.0090598246576561</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apr 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2025</t>
   </si>
 </sst>
 </file>
@@ -3646,6 +3649,29 @@
         <v>-0.0090598246576561</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.0173374613003097</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.00844143992761167</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.00949996487492651</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.00356375335120641</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.00354066780821921</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.00770836466165414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t xml:space="preserve">May 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun 2025</t>
   </si>
 </sst>
 </file>
@@ -3672,6 +3675,29 @@
         <v>-0.00770836466165414</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0185873605947955</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.00754052631004175</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.00905966622787161</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0030483218221261</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.00543238768014459</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.00649354144538856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jun 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 2025</t>
   </si>
 </sst>
 </file>
@@ -3698,6 +3701,29 @@
         <v>-0.00649354144538856</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.0172732880937694</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.00672840871966458</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.00872402921362201</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.00366509667848101</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.00540892888078559</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.00725317539878381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jul 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 2025</t>
   </si>
 </sst>
 </file>
@@ -3663,13 +3666,13 @@
         <v>0.0173374613003097</v>
       </c>
       <c r="C126" t="n">
-        <v>0.00844143992761167</v>
+        <v>0.00844143992761166</v>
       </c>
       <c r="D126" t="n">
         <v>0.00949996487492651</v>
       </c>
       <c r="E126" t="n">
-        <v>0.00356375335120641</v>
+        <v>0.00356375335120643</v>
       </c>
       <c r="F126" t="n">
         <v>0.00354066780821921</v>
@@ -3686,19 +3689,19 @@
         <v>0.0185873605947955</v>
       </c>
       <c r="C127" t="n">
-        <v>0.00754052631004175</v>
+        <v>0.0075235082410774</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00905966622787161</v>
+        <v>0.00905844263820165</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0030483218221261</v>
+        <v>0.00304817595855746</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00543238768014459</v>
+        <v>0.0054377539977834</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.00649354144538856</v>
+        <v>-0.00648052024082442</v>
       </c>
     </row>
     <row r="128">
@@ -3709,19 +3712,42 @@
         <v>0.0172732880937694</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00672840871966458</v>
+        <v>0.00673364814713444</v>
       </c>
       <c r="D128" t="n">
-        <v>0.00872402921362201</v>
+        <v>0.00872287938061066</v>
       </c>
       <c r="E128" t="n">
-        <v>0.00366509667848101</v>
+        <v>0.00366262770587371</v>
       </c>
       <c r="F128" t="n">
         <v>0.00540892888078559</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.00725317539878381</v>
+        <v>-0.00725479602063502</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0185414091470952</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.00797167077645086</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0078199976261673</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.00372708305663194</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.00470410763825407</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.00568144995040894</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aug 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 2025</t>
   </si>
 </sst>
 </file>
@@ -3750,6 +3753,29 @@
         <v>-0.00568144995040894</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0235878336436997</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.00875857933978683</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.00779787275560029</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.00431833473825491</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.00449060513739574</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.00177755832733811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sep 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 2025</t>
   </si>
 </sst>
 </file>
@@ -3776,6 +3779,29 @@
         <v>-0.00177755832733811</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0216316440049444</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.00977343548462619</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.00788708094645665</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.00367029175155748</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.00448723645633603</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.0041864006340319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oct 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2025</t>
   </si>
 </sst>
 </file>
@@ -3802,6 +3805,29 @@
         <v>-0.0041864006340319</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.0222496909765142</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.00827617404285677</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.00706374541707822</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.00504201325133445</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.00518870398747678</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.00332094572223203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nov 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 2025</t>
   </si>
 </sst>
 </file>
@@ -3828,6 +3831,29 @@
         <v>-0.00332094572223203</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.023573200992556</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0119571848896338</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.00644692585525761</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.00540630124163589</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0054095762494254</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.00564678724339666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C13 Figures.xlsx
+++ b/Data/C13 Figures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dec 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 2026</t>
   </si>
 </sst>
 </file>
@@ -3854,6 +3857,29 @@
         <v>-0.00564678724339666</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.022938623682579</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.013402552194003</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.00565534650275192</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.00522854459732831</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.005903060310263</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.00725087992176722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
